--- a/Cluster_analysis/graph/frequency_analysis_day6_behavior/behavior_Exp/segment_002/summary_statistics.xlsx
+++ b/Cluster_analysis/graph/frequency_analysis_day6_behavior/behavior_Exp/segment_002/summary_statistics.xlsx
@@ -585,55 +585,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.008583690987124463</v>
+        <v>0.02406417112299465</v>
       </c>
       <c r="C3" t="n">
-        <v>184.9629933504011</v>
+        <v>95.12667435409145</v>
       </c>
       <c r="D3" t="n">
-        <v>549.1051864705988</v>
+        <v>317.4486542222979</v>
       </c>
       <c r="E3" t="n">
-        <v>9.103519605180059e-07</v>
+        <v>1.498463616472706e-06</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0004509059748443604</v>
+        <v>0.0004008607958568073</v>
       </c>
       <c r="G3" t="n">
-        <v>2.733333333333333</v>
+        <v>3.39</v>
       </c>
       <c r="H3" t="n">
-        <v>2.166666666666667</v>
+        <v>1.808333333333333</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1011188730397971</v>
+        <v>0.01882022430268943</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5889050083674593</v>
+        <v>0.4932037014632633</v>
       </c>
       <c r="L3" t="n">
-        <v>1.38503957438147</v>
+        <v>1.082218747149067</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.9283484843917422</v>
+        <v>-0.8541523656240352</v>
       </c>
       <c r="N3" t="n">
         <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>467</v>
       </c>
       <c r="P3" t="n">
-        <v>233</v>
+        <v>653</v>
       </c>
       <c r="Q3" t="n">
-        <v>232</v>
+        <v>186</v>
       </c>
       <c r="R3" t="n">
-        <v>233</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4">
@@ -643,40 +643,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01731225696445015</v>
+        <v>0.03327940016288639</v>
       </c>
       <c r="C4" t="n">
-        <v>119.695671690046</v>
+        <v>56.2104670652167</v>
       </c>
       <c r="D4" t="n">
-        <v>276.4962908688016</v>
+        <v>146.4317887754359</v>
       </c>
       <c r="E4" t="n">
-        <v>1.277180053460107e-06</v>
+        <v>3.701028348688529e-06</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0004991000470661707</v>
+        <v>0.0004315505888190245</v>
       </c>
       <c r="G4" t="n">
-        <v>5.34852004452322</v>
+        <v>4.853609525263524</v>
       </c>
       <c r="H4" t="n">
-        <v>1.197549286578766</v>
+        <v>0.9760334230639097</v>
       </c>
       <c r="I4" t="n">
-        <v>0.747122540414543</v>
+        <v>0.6474635430261866</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9289080092195909</v>
+        <v>0.5571005587173246</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3810920148284322</v>
+        <v>0.3030868954813774</v>
       </c>
       <c r="L4" t="n">
-        <v>1.493548958763223</v>
+        <v>1.097145137280857</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6622198889941679</v>
+        <v>0.3856830088235566</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>29.40754902982868</v>
+        <v>26.02931268269998</v>
       </c>
       <c r="D5" t="n">
-        <v>159.4968947262242</v>
+        <v>139.0974277833936</v>
       </c>
       <c r="E5" t="n">
-        <v>9.402204126964957e-10</v>
+        <v>8.193795382432118e-09</v>
       </c>
       <c r="F5" t="n">
-        <v>3.370906817977835e-05</v>
+        <v>3.467823290331183e-05</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -725,31 +725,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>-1.156115114869216</v>
+        <v>-1.045400158431121</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1207336371971952</v>
+        <v>0.1055081175561679</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.6759664977110683</v>
+        <v>-0.7269685173717831</v>
       </c>
       <c r="M5" t="n">
-        <v>-2.812574593611202</v>
+        <v>-1.492313274050776</v>
       </c>
       <c r="N5" t="n">
         <v>2</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>467</v>
       </c>
       <c r="P5" t="n">
-        <v>233</v>
+        <v>653</v>
       </c>
       <c r="Q5" t="n">
-        <v>232</v>
+        <v>186</v>
       </c>
       <c r="R5" t="n">
-        <v>233</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6">
@@ -762,16 +762,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>114.6844709923571</v>
+        <v>52.34877915461516</v>
       </c>
       <c r="D6" t="n">
-        <v>317.3032401035359</v>
+        <v>208.500637754582</v>
       </c>
       <c r="E6" t="n">
-        <v>9.767934406668923e-08</v>
+        <v>1.416785642247565e-07</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0001407415119970398</v>
+        <v>0.0001316892501910562</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -783,31 +783,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.6146401412466362</v>
+        <v>-0.3953628666168182</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2685178411878182</v>
+        <v>0.2597555727473786</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06875742458779951</v>
+        <v>0.1722164873027681</v>
       </c>
       <c r="M6" t="n">
-        <v>-1.305522664495545</v>
+        <v>-1.105393597064472</v>
       </c>
       <c r="N6" t="n">
         <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>467</v>
       </c>
       <c r="P6" t="n">
-        <v>233</v>
+        <v>653</v>
       </c>
       <c r="Q6" t="n">
-        <v>232</v>
+        <v>186</v>
       </c>
       <c r="R6" t="n">
-        <v>233</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7">
@@ -820,52 +820,52 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>158.4935826773678</v>
+        <v>86.14856236878325</v>
       </c>
       <c r="D7" t="n">
-        <v>467.8202562615976</v>
+        <v>289.2279340423925</v>
       </c>
       <c r="E7" t="n">
-        <v>3.541075030476205e-07</v>
+        <v>3.487788766499023e-07</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0003019076706047758</v>
+        <v>0.0002868400420918594</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>2.05</v>
+        <v>1.6</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.2520610223967769</v>
+        <v>-0.04282284761154291</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4650040365567464</v>
+        <v>0.3933857526916854</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9835748737846892</v>
+        <v>0.9465425962046929</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.9676152083344068</v>
+        <v>-0.8718180650538787</v>
       </c>
       <c r="N7" t="n">
         <v>2</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>467</v>
       </c>
       <c r="P7" t="n">
-        <v>233</v>
+        <v>653</v>
       </c>
       <c r="Q7" t="n">
-        <v>232</v>
+        <v>186</v>
       </c>
       <c r="R7" t="n">
-        <v>233</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8">
@@ -875,55 +875,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.053475935828877</v>
       </c>
       <c r="C8" t="n">
-        <v>209.4299909209807</v>
+        <v>116.9237254759604</v>
       </c>
       <c r="D8" t="n">
-        <v>759.6633236708888</v>
+        <v>392.1695252364775</v>
       </c>
       <c r="E8" t="n">
-        <v>1.165057818276562e-06</v>
+        <v>1.051128944383378e-06</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0005571874893064133</v>
+        <v>0.000519041457960961</v>
       </c>
       <c r="G8" t="n">
-        <v>2.95</v>
+        <v>6</v>
       </c>
       <c r="H8" t="n">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6893941287553494</v>
+        <v>0.3326491523609407</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8756161943840635</v>
+        <v>0.6803276413094956</v>
       </c>
       <c r="L8" t="n">
-        <v>2.910395807308562</v>
+        <v>1.829522456238086</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.6443826884868854</v>
+        <v>-0.662100975787407</v>
       </c>
       <c r="N8" t="n">
         <v>2</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>467</v>
       </c>
       <c r="P8" t="n">
-        <v>233</v>
+        <v>653</v>
       </c>
       <c r="Q8" t="n">
-        <v>232</v>
+        <v>186</v>
       </c>
       <c r="R8" t="n">
-        <v>233</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9">
@@ -933,55 +933,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.04291845493562232</v>
+        <v>0.106951871657754</v>
       </c>
       <c r="C9" t="n">
-        <v>616.5230960289482</v>
+        <v>270.2593480818525</v>
       </c>
       <c r="D9" t="n">
-        <v>1296.694131629864</v>
+        <v>771.7333759198301</v>
       </c>
       <c r="E9" t="n">
-        <v>7.294109062789282e-06</v>
+        <v>2.479676220364421e-05</v>
       </c>
       <c r="F9" t="n">
-        <v>0.002617061251780242</v>
+        <v>0.002580544237747133</v>
       </c>
       <c r="G9" t="n">
-        <v>21.6</v>
+        <v>16.8</v>
       </c>
       <c r="H9" t="n">
-        <v>5.1</v>
+        <v>4.1</v>
       </c>
       <c r="I9" t="n">
         <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>2.646021871368876</v>
+        <v>1.445237155517928</v>
       </c>
       <c r="K9" t="n">
-        <v>1.383727144085443</v>
+        <v>1.329946333392617</v>
       </c>
       <c r="L9" t="n">
-        <v>4.173822648286015</v>
+        <v>3.342561006688892</v>
       </c>
       <c r="M9" t="n">
-        <v>1.040517100015583</v>
+        <v>0.4619086103160087</v>
       </c>
       <c r="N9" t="n">
         <v>2</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>467</v>
       </c>
       <c r="P9" t="n">
-        <v>233</v>
+        <v>653</v>
       </c>
       <c r="Q9" t="n">
-        <v>232</v>
+        <v>186</v>
       </c>
       <c r="R9" t="n">
-        <v>233</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
